--- a/bots/crawl_ch/output/vegi_coop_2023-01-18.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-18.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -916,7 +916,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -1996,7 +1996,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2130,7 +2130,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2406,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2475,7 +2475,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2747,7 +2747,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3697,7 +3697,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -3973,7 +3973,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4042,7 +4042,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4180,7 +4180,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4525,7 +4525,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4659,7 +4659,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4724,7 +4724,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4789,7 +4789,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4927,7 +4927,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -4996,7 +4996,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5467,7 +5467,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5739,7 +5739,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5804,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6129,7 +6129,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6247,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6316,7 +6316,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6385,7 +6385,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6450,7 +6450,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6714,7 +6714,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6848,7 +6848,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -6982,7 +6982,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7051,7 +7051,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7116,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7319,7 +7319,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7526,7 +7526,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7595,7 +7595,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7664,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7733,7 +7733,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7802,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7867,7 +7867,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8066,7 +8066,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8135,7 +8135,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8200,7 +8200,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8269,7 +8269,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8338,7 +8338,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8468,7 +8468,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8602,7 +8602,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8671,7 +8671,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8740,7 +8740,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8882,7 +8882,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -8951,7 +8951,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9024,7 +9024,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9166,7 +9166,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9235,7 +9235,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9369,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9438,7 +9438,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9645,7 +9645,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9714,7 +9714,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9783,7 +9783,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9852,7 +9852,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -9986,7 +9986,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10055,7 +10055,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10120,7 +10120,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10258,7 +10258,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10327,7 +10327,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10380,7 +10380,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10514,7 +10514,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10587,7 +10587,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10660,7 +10660,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10798,7 +10798,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10867,7 +10867,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -10934,7 +10934,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11072,7 +11072,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11283,7 +11283,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11348,7 +11348,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11490,7 +11490,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11628,7 +11628,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11701,7 +11701,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11770,7 +11770,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11843,7 +11843,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11908,7 +11908,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -11977,7 +11977,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12168,7 +12168,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12231,7 +12231,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12300,7 +12300,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12369,7 +12369,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12438,7 +12438,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12507,7 +12507,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12580,7 +12580,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12643,7 +12643,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12716,7 +12716,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12785,7 +12785,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12854,7 +12854,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12923,7 +12923,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -12988,7 +12988,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13057,7 +13057,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13126,7 +13126,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13195,7 +13195,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13260,7 +13260,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13329,7 +13329,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13402,7 +13402,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13467,7 +13467,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13536,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13601,7 +13601,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13674,7 +13674,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13743,7 +13743,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13794,7 +13794,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13863,7 +13863,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -13932,7 +13932,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14074,7 +14074,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14139,7 +14139,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14212,7 +14212,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14346,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14411,7 +14411,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14480,7 +14480,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14545,7 +14545,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14610,7 +14610,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14679,7 +14679,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14821,7 +14821,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -14967,7 +14967,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15016,7 +15016,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15089,7 +15089,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15154,7 +15154,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15219,7 +15219,7 @@
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15284,7 +15284,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15353,7 +15353,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15426,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15560,7 +15560,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15627,7 +15627,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15692,7 +15692,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15830,7 +15830,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15899,7 +15899,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -15968,7 +15968,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16102,7 +16102,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16171,7 +16171,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16244,7 +16244,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16313,7 +16313,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16378,7 +16378,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16451,7 +16451,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16520,7 +16520,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16573,7 +16573,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16646,7 +16646,7 @@
       </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16715,7 +16715,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16784,7 +16784,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16924,7 +16924,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -16997,7 +16997,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17066,7 +17066,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17135,7 +17135,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17208,7 +17208,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17281,7 +17281,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17350,7 +17350,7 @@
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17419,7 +17419,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17492,7 +17492,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17565,7 +17565,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17638,7 +17638,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17711,7 +17711,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17784,7 +17784,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -17853,28 +17853,28 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6497015</t>
+          <t>6533585</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prix Garantie Orangen</t>
+          <t>Prix Garantie Clementinen</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-orangen/p/6497015</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-clementinen/p/6533585</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E257" t="n">
         <v>3</v>
@@ -17886,12 +17886,12 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.34/1kg</t>
+          <t>1.80/1kg</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -17901,7 +17901,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -17916,155 +17916,155 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Prix Garantie Orangen 3.35 Schweizer Franken</t>
+          <t>Prix Garantie Clementinen 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>3091461</t>
+          <t>6497015</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Schöni Sauerkraut roh</t>
+          <t>Prix Garantie Orangen</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerkraut-roh/p/3091461</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-orangen/p/6497015</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E258" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>1.34/1kg</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Schöni Sauerkraut roh 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N258" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Orangen 3.35 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>6533585</t>
+          <t>3091461</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Prix Garantie Clementinen</t>
+          <t>Schöni Sauerkraut roh</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-clementinen/p/6533585</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerkraut-roh/p/3091461</t>
         </is>
       </c>
       <c r="D259" t="n">
+        <v>10</v>
+      </c>
+      <c r="E259" t="n">
         <v>5</v>
       </c>
-      <c r="E259" t="n">
-        <v>3</v>
-      </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>1.80/1kg</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>Prix Garantie Clementinen 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N259" t="inlineStr"/>
+          <t>Schöni Sauerkraut roh 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18137,7 +18137,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18210,7 +18210,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18283,7 +18283,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18352,7 +18352,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18417,7 +18417,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18466,7 +18466,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18539,7 +18539,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18604,7 +18604,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18669,7 +18669,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18738,7 +18738,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18807,7 +18807,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18880,7 +18880,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -18953,7 +18953,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19022,7 +19022,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19087,7 +19087,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19160,7 +19160,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19229,7 +19229,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19298,7 +19298,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19363,7 +19363,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19436,7 +19436,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19509,7 +19509,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19582,7 +19582,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19651,7 +19651,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19720,7 +19720,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19785,7 +19785,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19850,7 +19850,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19915,7 +19915,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -19980,7 +19980,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20053,7 +20053,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20126,7 +20126,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20191,7 +20191,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20264,7 +20264,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20333,7 +20333,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20406,7 +20406,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20475,7 +20475,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20548,7 +20548,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20694,7 +20694,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20763,7 +20763,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20905,7 +20905,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -20970,7 +20970,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21043,7 +21043,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21106,7 +21106,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21175,7 +21175,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21240,7 +21240,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21386,7 +21386,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21459,7 +21459,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21532,7 +21532,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21605,7 +21605,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21678,7 +21678,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21747,7 +21747,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21814,7 +21814,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21879,7 +21879,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -21952,7 +21952,7 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22021,7 +22021,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22090,7 +22090,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22143,7 +22143,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22214,45 +22214,45 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>6711893</t>
+          <t>3402222</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Wild Foods Wood Smoked</t>
+          <t>Betty Bossi Hot Chili</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/wild-foods-wood-smoked/p/6711893</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/betty-bossi-hot-chili/p/3402222</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E320" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>WILD FOODS</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>6.88/100g</t>
+          <t>16.00/100g</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -22262,7 +22262,7 @@
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="K320" t="inlineStr">
@@ -22272,60 +22272,60 @@
       </c>
       <c r="L320" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>Wild Foods Wood Smoked 8.95 Schweizer Franken</t>
+          <t>Betty Bossi Hot Chili 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N320" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>3402222</t>
+          <t>6711893</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Betty Bossi Hot Chili</t>
+          <t>Wild Foods Wood Smoked</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/betty-bossi-hot-chili/p/3402222</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/wild-foods-wood-smoked/p/6711893</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E321" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WILD FOODS</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>16.00/100g</t>
+          <t>6.88/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -22335,7 +22335,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -22345,46 +22345,46 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Betty Bossi Hot Chili 2.40 Schweizer Franken</t>
+          <t>Wild Foods Wood Smoked 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6767080</t>
+          <t>4184522</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Marroni soft</t>
+          <t>Délicorn Tivall vegetarisch Geschnetzeltes</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-soft/p/6767080</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-tivall-vegetarisch-geschnetzeltes/p/4184522</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
@@ -22393,12 +22393,12 @@
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>3.95/100g</t>
+          <t>2.48/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -22408,7 +22408,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -22418,154 +22418,154 @@
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Marroni soft 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr"/>
+          <t>Délicorn Tivall vegetarisch Geschnetzeltes 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>7112792</t>
+          <t>6767080</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Clementinen mit Blatt ca. 1kg</t>
+          <t>Marroni soft</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/clementinen-mit-blatt-ca/p/7112792</t>
-        </is>
-      </c>
-      <c r="D323" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-soft/p/6767080</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>1</v>
+      </c>
       <c r="E323" t="n">
-        <v>0</v>
-      </c>
-      <c r="F323" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>4.80/1kg</t>
+          <t>3.95/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Clementinen mit Blatt ca. 1kg 4.80 Schweizer Franken</t>
+          <t>Marroni soft 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>4184522</t>
+          <t>7112792</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Délicorn Tivall vegetarisch Geschnetzeltes</t>
+          <t>Clementinen mit Blatt ca. 1kg</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-tivall-vegetarisch-geschnetzeltes/p/4184522</t>
-        </is>
-      </c>
-      <c r="D324" t="n">
-        <v>52</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/clementinen-mit-blatt-ca/p/7112792</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr"/>
       <c r="E324" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>2.48/100g</t>
+          <t>4.80/1kg</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Délicorn Tivall vegetarisch Geschnetzeltes 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N324" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Clementinen mit Blatt ca. 1kg 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22638,7 +22638,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22703,7 +22703,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22776,7 +22776,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22845,7 +22845,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22908,7 +22908,7 @@
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Gartensalat 3.80 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Gartensalat - Online kein Bestand 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N329" t="inlineStr">
@@ -22918,7 +22918,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -22991,7 +22991,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23060,7 +23060,7 @@
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23133,7 +23133,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23202,7 +23202,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23249,7 +23249,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23318,7 +23318,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23383,7 +23383,7 @@
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23448,7 +23448,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23513,7 +23513,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23576,7 +23576,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23643,7 +23643,7 @@
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23716,7 +23716,7 @@
       </c>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -23789,45 +23789,45 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>6640069</t>
+          <t>6794616</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Garden Gourmet Vuna</t>
+          <t>Naturaplan Bio Nüssli &amp;amp; Rucola</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/garden-gourmet-vuna/p/6640069</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuessli-rucola/p/6794616</t>
         </is>
       </c>
       <c r="D343" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="E343" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>3.71/100g</t>
+          <t>4.95/100g</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -23837,7 +23837,7 @@
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K343" t="inlineStr">
@@ -23847,158 +23847,158 @@
       </c>
       <c r="L343" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M343" t="inlineStr">
         <is>
-          <t>Garden Gourmet Vuna 25% ab 2 Aktion 6.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Nüssli &amp;amp; Rucola 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N343" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>7002845</t>
+          <t>6640069</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Kartoffeln rote Linie IP-Suisse</t>
+          <t>Garden Gourmet Vuna</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-rote-linie-ip-suisse/p/7002845</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/garden-gourmet-vuna/p/6640069</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>72</v>
+      </c>
       <c r="E344" t="n">
-        <v>0</v>
-      </c>
-      <c r="F344" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Garden Gourmet</t>
+        </is>
+      </c>
       <c r="G344" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>1.58/1kg</t>
+          <t>3.71/100g</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L344" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>Kartoffeln rote Linie IP-Suisse 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N344" t="inlineStr"/>
+          <t>Garden Gourmet Vuna 25% ab 2 Aktion 6.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N344" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>6794616</t>
+          <t>7002845</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüssli &amp;amp; Rucola</t>
+          <t>Kartoffeln rote Linie IP-Suisse</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-nuessli-rucola/p/6794616</t>
-        </is>
-      </c>
-      <c r="D345" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/kartoffeln-rote-linie-ip-suisse/p/7002845</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr"/>
       <c r="E345" t="n">
-        <v>5</v>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>4.95/100g</t>
+          <t>1.58/1kg</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L345" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Nüssli &amp;amp; Rucola 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N345" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Kartoffeln rote Linie IP-Suisse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24067,7 +24067,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24140,7 +24140,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24209,7 +24209,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24274,7 +24274,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24347,7 +24347,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24420,7 +24420,7 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24489,7 +24489,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24558,7 +24558,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24631,7 +24631,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24704,7 +24704,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24773,7 +24773,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24846,7 +24846,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24915,7 +24915,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -24988,7 +24988,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25134,7 +25134,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25203,7 +25203,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25272,7 +25272,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25341,7 +25341,7 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25414,7 +25414,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25487,7 +25487,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25556,7 +25556,7 @@
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25629,7 +25629,7 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25702,7 +25702,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -25767,167 +25767,163 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6798822</t>
+          <t>7096021</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Planted Schnitzel</t>
+          <t>Cherimoya 1 Stück</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/planted-schnitzel/p/6798822</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/cherimoya-1-stueck/p/7096021</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E371" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F371" t="inlineStr">
-        <is>
-          <t>Planted</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr">
         <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>3.16/100g</t>
-        </is>
-      </c>
-      <c r="I371" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J371" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Planted Schnitzel 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Cherimoya 1 Stück 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>7096021</t>
+          <t>6650171</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Cherimoya 1 Stück</t>
+          <t>Naturaplan Bio Rotkraut</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/cherimoya-1-stueck/p/7096021</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E372" t="n">
         <v>5</v>
       </c>
-      <c r="F372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="H372" t="inlineStr"/>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>0.74/100g</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Cherimoya 1 Stück 3.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>6650171</t>
+          <t>6798822</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut</t>
+          <t>Planted Schnitzel</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/naturaplan-bio-rotkraut/p/6650171</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/planted-schnitzel/p/6798822</t>
         </is>
       </c>
       <c r="D373" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E373" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>0.74/100g</t>
+          <t>3.16/100g</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -25937,7 +25933,7 @@
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K373" t="inlineStr">
@@ -25947,18 +25943,22 @@
       </c>
       <c r="L373" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M373" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Rotkraut 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N373" t="inlineStr"/>
+          <t>Planted Schnitzel 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26027,7 +26027,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26100,7 +26100,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26173,141 +26173,141 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>3503784</t>
+          <t>4513438</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Gemüse Bananen ca. 1kg</t>
+          <t>Wakame Salat mit Algen</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/bananen/gemuese-bananen-ca/p/3503784</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/wakame-salat-mit-algen/p/4513438</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E377" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>3.80/1kg</t>
+          <t>3.16/100g</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L377" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'bananen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M377" t="inlineStr">
         <is>
-          <t>Gemüse Bananen ca. 1kg 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N377" t="inlineStr"/>
+          <t>Wakame Salat mit Algen 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>4513438</t>
+          <t>3503784</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Wakame Salat mit Algen</t>
+          <t>Gemüse Bananen ca. 1kg</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/wakame-salat-mit-algen/p/4513438</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/bananen/gemuese-bananen-ca/p/3503784</t>
         </is>
       </c>
       <c r="D378" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E378" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>3.16/100g</t>
+          <t>3.80/1kg</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L378" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'bananen']</t>
         </is>
       </c>
       <c r="M378" t="inlineStr">
         <is>
-          <t>Wakame Salat mit Algen 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N378" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Gemüse Bananen ca. 1kg 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26380,7 +26380,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26453,7 +26453,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26526,7 +26526,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26591,7 +26591,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26664,7 +26664,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26727,7 +26727,7 @@
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat 5.20 Schweizer Franken</t>
+          <t>Betty Bossi Poulet Currysalat - Online kein Bestand 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N384" t="inlineStr">
@@ -26737,7 +26737,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26810,7 +26810,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26883,7 +26883,7 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -26956,7 +26956,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27029,7 +27029,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27102,7 +27102,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27175,7 +27175,7 @@
       </c>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27248,7 +27248,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27321,7 +27321,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27394,7 +27394,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27467,7 +27467,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27536,7 +27536,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27609,7 +27609,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27682,31 +27682,31 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>4083022</t>
+          <t>7032051</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox</t>
+          <t>Naturaplan Bio Bulgursalat</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-bulgursalat/p/7032051</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
@@ -27715,67 +27715,71 @@
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>7.83/1kg</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>7.83</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N398" t="inlineStr"/>
+          <t>Naturaplan Bio Bulgursalat 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>7032051</t>
+          <t>4083022</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bulgursalat</t>
+          <t>Naturaplan Bio Family Gemüsebox</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-bulgursalat/p/7032051</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-gemuesebox/p/4083022</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E399" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
@@ -27784,47 +27788,43 @@
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>7.83/1kg</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Bulgursalat 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N399" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Family Gemüsebox 23.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -27897,149 +27897,149 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>4069878</t>
+          <t>6325173</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück</t>
+          <t>Vivera Vissticks wie Fischstäbchen vegan</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/vivera-vissticks-wie-fischstaebchen-vegan/p/6325173</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E401" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>1.95/1ST</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N401" t="inlineStr"/>
+          <t>Vivera Vissticks wie Fischstäbchen vegan 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N401" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>6325173</t>
+          <t>4069878</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Vivera Vissticks wie Fischstäbchen vegan</t>
+          <t>Fairtrade Kokosnuss 1 Stück</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/vivera-vissticks-wie-fischstaebchen-vegan/p/6325173</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E402" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Vivera</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>1.95/1ST</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>Vivera Vissticks wie Fischstäbchen vegan 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N402" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fairtrade Kokosnuss 1 Stück 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28112,7 +28112,7 @@
       </c>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28183,7 +28183,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28248,45 +28248,45 @@
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6764726</t>
+          <t>6508237</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh</t>
+          <t>Garden Gourmet Sensational Gehacktes</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-sensational-gehacktes/p/6508237</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E406" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>0.30/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -28296,7 +28296,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -28306,60 +28306,60 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational Gehacktes 25% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N406" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>6508237</t>
+          <t>6764726</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes</t>
+          <t>Prix Garantie Sauerkraut roh</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/garden-gourmet-sensational-gehacktes/p/6508237</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/prix-garantie-sauerkraut-roh/p/6764726</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E407" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>0.30/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -28369,7 +28369,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -28379,22 +28379,22 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Gehacktes 25% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Prix Garantie Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28467,7 +28467,7 @@
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28540,7 +28540,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28605,7 +28605,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28678,7 +28678,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28751,7 +28751,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28816,7 +28816,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28889,7 +28889,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -28962,7 +28962,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29035,7 +29035,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29108,7 +29108,7 @@
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29181,145 +29181,145 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>6293683</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>Artischocke 1 Stück</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/artischocke-1-stueck/p/6293683</t>
         </is>
       </c>
       <c r="D419" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E419" t="n">
-        <v>4</v>
-      </c>
-      <c r="F419" t="inlineStr">
-        <is>
-          <t>BEYOND MEAT</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.80/1ST</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K419" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L419" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M419" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N419" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Artischocke 1 Stück 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>6293683</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Artischocke 1 Stück</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/artischocke-1-stueck/p/6293683</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D420" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E420" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F420" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>BEYOND MEAT</t>
+        </is>
+      </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>1.80/1ST</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K420" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L420" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M420" t="inlineStr">
         <is>
-          <t>Artischocke 1 Stück 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N420" t="inlineStr"/>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N420" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29366,7 +29366,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29419,7 +29419,7 @@
       <c r="N422" t="inlineStr"/>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29492,7 +29492,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29561,7 +29561,7 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29626,7 +29626,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29699,7 +29699,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29764,7 +29764,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29837,7 +29837,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29908,7 +29908,7 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -29981,7 +29981,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30052,7 +30052,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30121,7 +30121,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30192,7 +30192,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30261,7 +30261,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30334,7 +30334,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30407,7 +30407,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30480,7 +30480,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30553,7 +30553,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30622,7 +30622,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30687,7 +30687,7 @@
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30758,7 +30758,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30829,7 +30829,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30902,7 +30902,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -30975,7 +30975,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31044,31 +31044,31 @@
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>5773713</t>
+          <t>6315512</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Betty Bossi Rotkraut gekocht</t>
+          <t>Fine Food Tomaten Amela</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-rotkraut-gekocht/p/5773713</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/fine-food-tomaten-amela/p/6315512</t>
         </is>
       </c>
       <c r="D446" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E446" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -31077,12 +31077,12 @@
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>3.20/100g</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -31092,7 +31092,7 @@
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="K446" t="inlineStr">
@@ -31102,46 +31102,42 @@
       </c>
       <c r="L446" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M446" t="inlineStr">
         <is>
-          <t>Betty Bossi Rotkraut gekocht 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N446" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Fine Food Tomaten Amela 8.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>6315512</t>
+          <t>5773713</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Fine Food Tomaten Amela</t>
+          <t>Betty Bossi Rotkraut gekocht</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/fine-food-tomaten-amela/p/6315512</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-rotkraut-gekocht/p/5773713</t>
         </is>
       </c>
       <c r="D447" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E447" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F447" t="inlineStr">
         <is>
@@ -31150,12 +31146,12 @@
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>3.20/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -31165,7 +31161,7 @@
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
@@ -31175,18 +31171,22 @@
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>Fine Food Tomaten Amela 8.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N447" t="inlineStr"/>
+          <t>Betty Bossi Rotkraut gekocht 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31259,7 +31259,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31328,7 +31328,7 @@
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31401,7 +31401,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31474,7 +31474,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31543,7 +31543,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31616,7 +31616,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31669,43 +31669,45 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>6862506</t>
+          <t>3091369</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Kartoffeln geschält</t>
+          <t>Schöni Sauerrüben roh</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/betty-bossi-sous-vide-kartoffeln-geschaelt/p/6862506</t>
-        </is>
-      </c>
-      <c r="D455" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerrueben-roh/p/3091369</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>5</v>
+      </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>0.88/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -31715,7 +31717,7 @@
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
@@ -31725,12 +31727,12 @@
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Kartoffeln geschält 3.50 Schweizer Franken</t>
+          <t>Schöni Sauerrüben roh 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N455" t="inlineStr">
@@ -31740,45 +31742,43 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>3091369</t>
+          <t>6862506</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Schöni Sauerrüben roh</t>
+          <t>Betty Bossi Sous vide Kartoffeln geschält</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerrueben-roh/p/3091369</t>
-        </is>
-      </c>
-      <c r="D456" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/betty-bossi-sous-vide-kartoffeln-geschaelt/p/6862506</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr"/>
       <c r="E456" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>0.88/100g</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -31788,7 +31788,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -31798,12 +31798,12 @@
       </c>
       <c r="L456" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M456" t="inlineStr">
         <is>
-          <t>Schöni Sauerrüben roh 3.30 Schweizer Franken</t>
+          <t>Betty Bossi Sous vide Kartoffeln geschält 3.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N456" t="inlineStr">
@@ -31813,7 +31813,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31886,7 +31886,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -31959,7 +31959,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32024,7 +32024,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32097,7 +32097,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32170,7 +32170,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32243,7 +32243,7 @@
       </c>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32312,7 +32312,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32385,7 +32385,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32454,7 +32454,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32519,7 +32519,7 @@
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32592,7 +32592,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32643,7 +32643,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32708,7 +32708,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32777,7 +32777,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32846,7 +32846,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32913,7 +32913,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -32980,7 +32980,7 @@
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33045,7 +33045,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33114,7 +33114,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33179,7 +33179,7 @@
       <c r="N476" t="inlineStr"/>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33244,7 +33244,7 @@
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33317,7 +33317,7 @@
       </c>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33386,7 +33386,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33459,7 +33459,7 @@
       </c>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33532,7 +33532,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33603,7 +33603,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33672,7 +33672,7 @@
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33745,7 +33745,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33810,7 +33810,7 @@
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33883,7 +33883,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -33956,7 +33956,7 @@
       </c>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34029,7 +34029,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34102,7 +34102,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34165,7 +34165,7 @@
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34234,7 +34234,7 @@
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34307,137 +34307,137 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>7019070</t>
+          <t>6338190</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
         </is>
       </c>
       <c r="D493" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E493" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Vivera</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2.98/100g</t>
-        </is>
-      </c>
-      <c r="I493" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr"/>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M493" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
+          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N493" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>6338190</t>
+          <t>7019070</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G</t>
+          <t>Vivera veganes Lachsfilet 2x100g</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-berner-kabissalat-kuemmel-500g/p/6338190</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E494" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="H494" t="inlineStr"/>
-      <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>2.98/100g</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L494" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M494" t="inlineStr">
         <is>
-          <t>Schöni Berner Kabissalat Kümmel 500G 2.40 Schweizer Franken</t>
+          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N494" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34510,7 +34510,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34583,7 +34583,7 @@
       </c>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34648,7 +34648,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34715,7 +34715,7 @@
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34788,7 +34788,7 @@
       </c>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34861,7 +34861,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -34932,7 +34932,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35005,7 +35005,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35078,7 +35078,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35151,7 +35151,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35222,7 +35222,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35295,7 +35295,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35364,7 +35364,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35435,7 +35435,7 @@
       </c>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35508,7 +35508,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35571,7 +35571,7 @@
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35644,7 +35644,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35713,7 +35713,7 @@
       <c r="N512" t="inlineStr"/>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35786,7 +35786,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35859,7 +35859,7 @@
       </c>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35926,7 +35926,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -35999,7 +35999,7 @@
       </c>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36068,7 +36068,7 @@
       <c r="N517" t="inlineStr"/>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36131,7 +36131,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36202,7 +36202,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36267,7 +36267,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36338,7 +36338,7 @@
       </c>
       <c r="O521" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36407,7 +36407,7 @@
       <c r="N522" t="inlineStr"/>
       <c r="O522" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36478,7 +36478,7 @@
       </c>
       <c r="O523" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36545,7 +36545,7 @@
       <c r="N524" t="inlineStr"/>
       <c r="O524" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36610,7 +36610,7 @@
       <c r="N525" t="inlineStr"/>
       <c r="O525" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36673,7 +36673,7 @@
       <c r="N526" t="inlineStr"/>
       <c r="O526" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36744,7 +36744,7 @@
       </c>
       <c r="O527" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
@@ -36815,7 +36815,7 @@
       </c>
       <c r="O528" t="inlineStr">
         <is>
-          <t>2023-01-18 16:50:55</t>
+          <t>2023-01-18 20:51:05</t>
         </is>
       </c>
     </row>
